--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_30_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_30_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>118012.4638794926</v>
+        <v>20805852.71844485</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>118012.4638794926</v>
+        <v>20805852.71844485</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5418.247720302799</v>
+        <v>554149.7920550066</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5418.247720302799</v>
+        <v>554149.7920550066</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1112157250.356373</v>
+        <v>45219307.20560483</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8635.972428159159</v>
+        <v>1003826.144466879</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16678.46406275098</v>
+        <v>1913395.32388583</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>24624.9284164332</v>
+        <v>2822964.503304782</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>32910.61581314765</v>
+        <v>3734739.917975435</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>41142.57095301506</v>
+        <v>4646251.292794819</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>49342.70217917294</v>
+        <v>5557762.66761405</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>57692.37174126515</v>
+        <v>6469274.042433196</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>65841.80571296594</v>
+        <v>7380785.41725235</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>73901.19306805589</v>
+        <v>8283208.648157312</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>81928.42825791305</v>
+        <v>9193421.836238539</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>89952.17438569824</v>
+        <v>10102991.01565739</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>97730.28189996688</v>
+        <v>11011312.82663985</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>105578.7208667198</v>
+        <v>11919805.52084169</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>113852.6120306408</v>
+        <v>12773424.03503405</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>122046.6653155148</v>
+        <v>13623129.32061395</v>
       </c>
     </row>
   </sheetData>
@@ -27043,22 +27043,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>360.9999999998731</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>49.00000000012687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>389.9999999998731</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,7 +27144,7 @@
         <v>255</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>91</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
